--- a/swimmers.xlsx
+++ b/swimmers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>EventsFlat</t>
+          <t>EventsMD</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -463,25 +463,325 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abbass Fadlalla Abobakr</t>
+          <t>Bognár Krys</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3 - 50 m férfi gyors&lt;br&gt;5 - 100 m férfi mell&lt;br&gt;9 - 200 m férfi gyors&lt;br&gt;17 - 100 m férfi gyors&lt;br&gt;21 - 50 m férfi mell&lt;br&gt;29 - 200 m férfi mell</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=186087024&amp;UMK=38773</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pfaff Bálint</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24 - 100 m férfi mell; 26 - 50 m férfi gyors; 50 - 50 m férfi mell; 56 - 50 m férfi pillangó</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://live.musz.hu/event/swimmer?OnlineEventId=179754929&amp;UMK=40342</t>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11 - 50 m férfi gyors&lt;br&gt;18 - 50 m férfi mell&lt;br&gt;22 - 100 m férfi hát&lt;br&gt;24 - 50 m férfi pillangó</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=180179401&amp;UMK=33731</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kuna Márk Károly</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18 - 100 m férfi pillangó&lt;br&gt;24 - 100 m férfi mell&lt;br&gt;28 - 200 m férfi hát&lt;br&gt;54 - 100 m férfi hát&lt;br&gt;58 - 200 m férfi mell&lt;br&gt;62 - 400 m férfi vegyes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=179754929&amp;UMK=35131</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Madár Marcell</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16 - 200 m férfi gyors&lt;br&gt;18 - 100 m férfi pillangó&lt;br&gt;22 - 200 m férfi vegyes&lt;br&gt;48 - 400 m férfi gyors&lt;br&gt;56 - 50 m férfi pillangó&lt;br&gt;62 - 400 m férfi vegyes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=179754929&amp;UMK=34309</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dudás Vilmos</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16 - 200 m férfi gyors&lt;br&gt;18 - 100 m férfi pillangó&lt;br&gt;30 - 1500 m férfi gyors&lt;br&gt;54 - 100 m férfi hát&lt;br&gt;60 - 100 m férfi gyors</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=179754929&amp;UMK=35785</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Oláh Mátyás</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16 - 200 m férfi gyors&lt;br&gt;24 - 100 m férfi mell&lt;br&gt;26 - 50 m férfi gyors&lt;br&gt;54 - 100 m férfi hát&lt;br&gt;56 - 50 m férfi pillangó&lt;br&gt;62 - 400 m férfi vegyes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=179754929&amp;UMK=35757</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Knitli Benedek</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18 - 100 m férfi pillangó&lt;br&gt;22 - 200 m férfi vegyes&lt;br&gt;26 - 50 m férfi gyors&lt;br&gt;50 - 50 m férfi mell&lt;br&gt;54 - 100 m férfi hát&lt;br&gt;60 - 100 m férfi gyors</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=179754929&amp;UMK=36672</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kurucz Áron</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16 - 200 m férfi gyors&lt;br&gt;22 - 200 m férfi vegyes&lt;br&gt;28 - 200 m férfi hát&lt;br&gt;54 - 100 m férfi hát&lt;br&gt;62 - 400 m férfi vegyes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=179754929&amp;UMK=33376</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Szentpéteri Olivér</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16 - 200 m férfi gyors&lt;br&gt;20 - 50 m férfi hát&lt;br&gt;30 - 1500 m férfi gyors&lt;br&gt;48 - 400 m férfi gyors&lt;br&gt;58 - 200 m férfi mell&lt;br&gt;60 - 100 m férfi gyors</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=179754929&amp;UMK=36810</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>M.Kiss Mózes</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5 - 100 m férfi gyors&lt;br&gt;7 - 200 m férfi vegyes&lt;br&gt;30 - 200 m férfi gyors&lt;br&gt;36 - 400 m férfi vegyes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=177767831&amp;UMK=35432</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Csamangó Bercel</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9 - 200 m férfi gyors&lt;br&gt;15 - 200 m férfi hát&lt;br&gt;19 - 800 m férfi gyors&lt;br&gt;23 - 200 m férfi vegyes&lt;br&gt;25 - 100 m férfi gyors</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=159653070&amp;UMK=34755</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Deutsch Dániel László</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4 - 1500 m férfi gyors&lt;br&gt;12 - 200 m férfi hát&lt;br&gt;20 - 100 m férfi hát&lt;br&gt;23 - 400 m férfi gyors&lt;br&gt;26 - 50 m férfi hát&lt;br&gt;32 - 100 m férfi gyors</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=181300725&amp;UMK=33436</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Siroki Bence Péter</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2 - 400 m férfi vegyes&lt;br&gt;8 - 50 m férfi mell&lt;br&gt;10 - 100 m férfi pillangó&lt;br&gt;18 - 200 m férfi vegyes&lt;br&gt;22 - 200 m férfi mell&lt;br&gt;28 - 200 m férfi pillangó&lt;br&gt;30 - 100 m férfi mell</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://live.musz.hu/event/swimmer?OnlineEventId=181300725&amp;UMK=33665</t>
         </is>
       </c>
     </row>
